--- a/output.xlsx
+++ b/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="575">
   <si>
     <t>subject id</t>
   </si>
@@ -451,6 +451,1296 @@
   </si>
   <si>
     <t>A12</t>
+  </si>
+  <si>
+    <t>E042</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E044</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E045</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E048</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E049</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E050</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E051</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E054</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E055</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E056</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E057</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E058</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E059</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E060</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E061</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E062</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E063</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E064</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E065</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E066</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E067</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E068</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E069</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E070</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E071</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E072</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E073</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E074</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E075</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E076</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E077</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E078</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E079</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E080</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E041</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E052</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E055</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E057</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E058</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E060</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E061</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E065</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E066</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E068</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E071</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E072</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E073</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E075</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E077</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E079</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E050</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E054</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E056</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E068</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E071</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E075</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E079</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E081</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E082</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E083</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E085</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E086</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E087</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E088</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E089</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E090</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E091</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E092</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E093</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E094</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E095</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E097</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E098</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E099</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E106</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E111</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E112</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E113</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E115</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E116</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E117</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E118</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E119</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E120</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E081</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E082</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E083</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E086</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E088</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E092</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E094</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E096</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E097</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E112</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E113</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E117</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E119</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E082</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E097</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E099</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E121</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E122</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E124</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E125</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E127</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E128</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E131</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E135</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E136</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E137</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E139</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E140</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E144</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E146</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E147</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E148</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E149</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E150</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E151</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E152</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E154</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E155</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E156</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E158</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E160</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E122</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E123</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E132</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E134</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E135</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E137</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E138</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E140</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E141</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E142</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E143</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E146</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E150</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E151</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E152</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E154</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E155</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E156</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E157</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E158</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E159</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E160</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E128</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E132</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E133</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E134</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E135</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E137</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E139</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E140</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E141</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E142</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E143</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E146</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E148</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E149</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E150</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E151</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E154</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E157</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E158</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E159</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E166</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E169</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E171</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E172</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E173</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E175</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E176</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E181</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>E162</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E164</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E169</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E171</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E172</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E173</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E177</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E169</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>shape check failed, check de data in actigraph software for errors</t>
+  </si>
+  <si>
+    <t>E171</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E172</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E173</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E176</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E183</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
 </sst>
 </file>
@@ -496,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H128"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.82421875" customWidth="true"/>
@@ -1195,13 +2485,2527 @@
         <v>0.62416640659733047</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="0">
+        <v>7</v>
+      </c>
+      <c r="D28" s="0">
+        <v>16.142862698412699</v>
+      </c>
+      <c r="E28" s="0">
+        <v>10.50888888888889</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.65099289297196417</v>
+      </c>
+      <c r="G28" s="0">
+        <v>4.3084126984126989</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.26689273017457665</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="0">
+        <v>7</v>
+      </c>
+      <c r="D29" s="0">
+        <v>14.321434126984128</v>
+      </c>
+      <c r="E29" s="0">
+        <v>6.1030158730158712</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.42614558143424369</v>
+      </c>
+      <c r="G29" s="0">
+        <v>6.8665079365079356</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.4794567272819566</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="0">
+        <v>7</v>
+      </c>
+      <c r="D30" s="0">
+        <v>13.857148412698413</v>
+      </c>
+      <c r="E30" s="0">
+        <v>8.6695238095238096</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.62563548800409985</v>
+      </c>
+      <c r="G30" s="0">
+        <v>6.3255555555555549</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.45648320759550665</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="0">
+        <v>5</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="0">
+        <v>4</v>
+      </c>
+      <c r="D32" s="0">
+        <v>13.750005555555555</v>
+      </c>
+      <c r="E32" s="0">
+        <v>8.8236111111111111</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.6417169124376112</v>
+      </c>
+      <c r="G32" s="0">
+        <v>7.1541666666666668</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.52030282007966866</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="0">
+        <v>7</v>
+      </c>
+      <c r="D33" s="0">
+        <v>15.071434126984128</v>
+      </c>
+      <c r="E33" s="0">
+        <v>12.74888888888889</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.84589752915836214</v>
+      </c>
+      <c r="G33" s="0">
+        <v>11.312698412698412</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.75060530520078261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="0">
+        <v>4</v>
+      </c>
+      <c r="D34" s="0">
+        <v>13.500005555555555</v>
+      </c>
+      <c r="E34" s="0">
+        <v>9.3147222222222226</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.68997913992627991</v>
+      </c>
+      <c r="G34" s="0">
+        <v>7.9602777777777778</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.58964996310701112</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="0">
+        <v>6</v>
+      </c>
+      <c r="D35" s="0">
+        <v>14.333338888888889</v>
+      </c>
+      <c r="E35" s="0">
+        <v>10.005000000000001</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.69802298526240891</v>
+      </c>
+      <c r="G35" s="0">
+        <v>7.0109259259259256</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.4891341773381741</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="0">
+        <v>7</v>
+      </c>
+      <c r="D36" s="0">
+        <v>13.71429126984127</v>
+      </c>
+      <c r="E36" s="0">
+        <v>9.0742857142857165</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.66166639863050991</v>
+      </c>
+      <c r="G36" s="0">
+        <v>8.7207936507936488</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.63589094610899155</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="0">
+        <v>7</v>
+      </c>
+      <c r="D37" s="0">
+        <v>13.428576984126986</v>
+      </c>
+      <c r="E37" s="0">
+        <v>5.813650793650794</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.4329312629716997</v>
+      </c>
+      <c r="G37" s="0">
+        <v>8.4466666666666672</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.6290068319711688</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="0">
+        <v>5</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" s="0">
+        <v>13.833338888888889</v>
+      </c>
+      <c r="E39" s="0">
+        <v>10.239259259259258</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.74018711906809131</v>
+      </c>
+      <c r="G39" s="0">
+        <v>9.3651851851851848</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.67700106680010697</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" s="0">
+        <v>13.458338888888889</v>
+      </c>
+      <c r="E40" s="0">
+        <v>7.8540740740740738</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.58358421042275455</v>
+      </c>
+      <c r="G40" s="0">
+        <v>7.3414814814814831</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.54549685084409327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="0">
+        <v>6</v>
+      </c>
+      <c r="D41" s="0">
+        <v>13.458338888888889</v>
+      </c>
+      <c r="E41" s="0">
+        <v>11.41537037037037</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.84820054425846125</v>
+      </c>
+      <c r="G41" s="0">
+        <v>8.2166666666666668</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.61052606376633078</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="0">
+        <v>7</v>
+      </c>
+      <c r="D42" s="0">
+        <v>16.428576984126984</v>
+      </c>
+      <c r="E42" s="0">
+        <v>10.382380952380954</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0.63197080078282108</v>
+      </c>
+      <c r="G42" s="0">
+        <v>11.603174603174603</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.706279954398083</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="0">
+        <v>7</v>
+      </c>
+      <c r="D43" s="0">
+        <v>15.142862698412699</v>
+      </c>
+      <c r="E43" s="0">
+        <v>9.2865079365079364</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.61325973308081072</v>
+      </c>
+      <c r="G43" s="0">
+        <v>8.7692063492063497</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.57909832003730399</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="0">
+        <v>7</v>
+      </c>
+      <c r="D44" s="0">
+        <v>14.96429126984127</v>
+      </c>
+      <c r="E44" s="0">
+        <v>6.2695238095238102</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.41896563602442577</v>
+      </c>
+      <c r="G44" s="0">
+        <v>3.1526984126984128</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.21068143862264277</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="0">
+        <v>5</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="0">
+        <v>5</v>
+      </c>
+      <c r="D46" s="0">
+        <v>13.750005555555555</v>
+      </c>
+      <c r="E46" s="0">
+        <v>10.808444444444444</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.78606836926530532</v>
+      </c>
+      <c r="G46" s="0">
+        <v>7.3746666666666671</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.53633917723669611</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="0">
+        <v>6</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="0">
+        <v>5</v>
+      </c>
+      <c r="D48" s="0">
+        <v>12.850005555555555</v>
+      </c>
+      <c r="E48" s="0">
+        <v>10.575111111111111</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.82296548942261594</v>
+      </c>
+      <c r="G48" s="0">
+        <v>9.173333333333332</v>
+      </c>
+      <c r="H48" s="0">
+        <v>0.71387777177787637</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="0">
+        <v>7</v>
+      </c>
+      <c r="D49" s="0">
+        <v>13.000005555555557</v>
+      </c>
+      <c r="E49" s="0">
+        <v>5.9050793650793647</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.45423668011863477</v>
+      </c>
+      <c r="G49" s="0">
+        <v>8.5450793650793635</v>
+      </c>
+      <c r="H49" s="0">
+        <v>0.657313516410585</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="0">
+        <v>5</v>
+      </c>
+      <c r="D50" s="0">
+        <v>14.550005555555554</v>
+      </c>
+      <c r="E50" s="0">
+        <v>8.2082222222222221</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.56413876894281445</v>
+      </c>
+      <c r="G50" s="0">
+        <v>10.719111111111111</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.73670838613654599</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="0">
+        <v>7</v>
+      </c>
+      <c r="D51" s="0">
+        <v>15.071434126984128</v>
+      </c>
+      <c r="E51" s="0">
+        <v>12.450317460317461</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.82608710992049661</v>
+      </c>
+      <c r="G51" s="0">
+        <v>8.4890476190476196</v>
+      </c>
+      <c r="H51" s="0">
+        <v>0.56325413676782743</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="0">
+        <v>5</v>
+      </c>
+      <c r="D52" s="0">
+        <v>13.200005555555554</v>
+      </c>
+      <c r="E52" s="0">
+        <v>10.204222222222223</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.7730468126907355</v>
+      </c>
+      <c r="G52" s="0">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="H52" s="0">
+        <v>0.63272700642802771</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="0">
+        <v>6</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="0">
+        <v>6</v>
+      </c>
+      <c r="D54" s="0">
+        <v>14.000005555555555</v>
+      </c>
+      <c r="E54" s="0">
+        <v>7.1283333333333339</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.50916646461648229</v>
+      </c>
+      <c r="G54" s="0">
+        <v>5.4429629629629632</v>
+      </c>
+      <c r="H54" s="0">
+        <v>0.38878291450413449</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="0">
+        <v>4</v>
+      </c>
+      <c r="D55" s="0">
+        <v>12.250005555555555</v>
+      </c>
+      <c r="E55" s="0">
+        <v>8.9397222222222226</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.72977291166761382</v>
+      </c>
+      <c r="G55" s="0">
+        <v>7.3361111111111112</v>
+      </c>
+      <c r="H55" s="0">
+        <v>0.59886594155739614</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="0">
+        <v>7</v>
+      </c>
+      <c r="D56" s="0">
+        <v>16.035719841269842</v>
+      </c>
+      <c r="E56" s="0">
+        <v>13.747777777777779</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.85732214792105743</v>
+      </c>
+      <c r="G56" s="0">
+        <v>5.1207936507936509</v>
+      </c>
+      <c r="H56" s="0">
+        <v>0.31933668718847757</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="0">
+        <v>7</v>
+      </c>
+      <c r="D57" s="0">
+        <v>13.892862698412699</v>
+      </c>
+      <c r="E57" s="0">
+        <v>11.103333333333333</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.79921133421997481</v>
+      </c>
+      <c r="G57" s="0">
+        <v>9.7173015873015878</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0.69944559290950292</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="0">
+        <v>6</v>
+      </c>
+      <c r="D58" s="0">
+        <v>13.583338888888889</v>
+      </c>
+      <c r="E58" s="0">
+        <v>4.8209259259259261</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0.3549146469333414</v>
+      </c>
+      <c r="G58" s="0">
+        <v>5.7229629629629626</v>
+      </c>
+      <c r="H58" s="0">
+        <v>0.42132225440125926</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="0">
+        <v>6</v>
+      </c>
+      <c r="D59" s="0">
+        <v>12.333338888888889</v>
+      </c>
+      <c r="E59" s="0">
+        <v>6.6725925925925909</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0.54102077731796805</v>
+      </c>
+      <c r="G59" s="0">
+        <v>9.2381481481481469</v>
+      </c>
+      <c r="H59" s="0">
+        <v>0.74903870163421837</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="0">
+        <v>7</v>
+      </c>
+      <c r="D60" s="0">
+        <v>14.892862698412699</v>
+      </c>
+      <c r="E60" s="0">
+        <v>6.2004761904761905</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0.41633877354801946</v>
+      </c>
+      <c r="G60" s="0">
+        <v>9.117460317460317</v>
+      </c>
+      <c r="H60" s="0">
+        <v>0.61220334210373595</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="0">
+        <v>3</v>
+      </c>
+      <c r="D61" s="0">
+        <v>13.083338888888889</v>
+      </c>
+      <c r="E61" s="0">
+        <v>6.5670370370370357</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0.50193892345127089</v>
+      </c>
+      <c r="G61" s="0">
+        <v>6.2051851851851856</v>
+      </c>
+      <c r="H61" s="0">
+        <v>0.47428146881183209</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="0">
+        <v>5</v>
+      </c>
+      <c r="D62" s="0">
+        <v>13.500005555555555</v>
+      </c>
+      <c r="E62" s="0">
+        <v>8.9651111111111099</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0.66408203124196241</v>
+      </c>
+      <c r="G62" s="0">
+        <v>7.5886666666666667</v>
+      </c>
+      <c r="H62" s="0">
+        <v>0.5621232254636932</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C63" s="0">
+        <v>7</v>
+      </c>
+      <c r="D63" s="0">
+        <v>15.000005555555557</v>
+      </c>
+      <c r="E63" s="0">
+        <v>5.5914285714285716</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0.37276176670199113</v>
+      </c>
+      <c r="G63" s="0">
+        <v>9.4293650793650805</v>
+      </c>
+      <c r="H63" s="0">
+        <v>0.6286241058005958</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" s="0">
+        <v>7</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" s="0">
+        <v>5</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="0">
+        <v>5</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="0">
+        <v>6</v>
+      </c>
+      <c r="D67" s="0">
+        <v>14.083338888888889</v>
+      </c>
+      <c r="E67" s="0">
+        <v>9.2114814814814814</v>
+      </c>
+      <c r="F67" s="0">
+        <v>0.65406943297721254</v>
+      </c>
+      <c r="G67" s="0">
+        <v>8.6359259259259264</v>
+      </c>
+      <c r="H67" s="0">
+        <v>0.61320159900002669</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="0">
+        <v>5</v>
+      </c>
+      <c r="D68" s="0">
+        <v>14.850005555555555</v>
+      </c>
+      <c r="E68" s="0">
+        <v>9.945333333333334</v>
+      </c>
+      <c r="F68" s="0">
+        <v>0.6697191658364513</v>
+      </c>
+      <c r="G68" s="0">
+        <v>5.0531111111111109</v>
+      </c>
+      <c r="H68" s="0">
+        <v>0.34027671519763741</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="0">
+        <v>6</v>
+      </c>
+      <c r="D69" s="0">
+        <v>14.375005555555555</v>
+      </c>
+      <c r="E69" s="0">
+        <v>6.3442592592592595</v>
+      </c>
+      <c r="F69" s="0">
+        <v>0.44133960399113537</v>
+      </c>
+      <c r="G69" s="0">
+        <v>6.0927777777777772</v>
+      </c>
+      <c r="H69" s="0">
+        <v>0.42384524682309299</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" s="0">
+        <v>6</v>
+      </c>
+      <c r="D70" s="0">
+        <v>14.208338888888889</v>
+      </c>
+      <c r="E70" s="0">
+        <v>12.698703703703705</v>
+      </c>
+      <c r="F70" s="0">
+        <v>0.89375005783640626</v>
+      </c>
+      <c r="G70" s="0">
+        <v>9.862222222222222</v>
+      </c>
+      <c r="H70" s="0">
+        <v>0.69411507561482866</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" s="0">
+        <v>5</v>
+      </c>
+      <c r="D71" s="0">
+        <v>14.550005555555554</v>
+      </c>
+      <c r="E71" s="0">
+        <v>10.730666666666668</v>
+      </c>
+      <c r="F71" s="0">
+        <v>0.73750258209141595</v>
+      </c>
+      <c r="G71" s="0">
+        <v>11.024222222222221</v>
+      </c>
+      <c r="H71" s="0">
+        <v>0.75767821394493551</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="0">
+        <v>7</v>
+      </c>
+      <c r="D72" s="0">
+        <v>14.000005555555557</v>
+      </c>
+      <c r="E72" s="0">
+        <v>6.6353968253968247</v>
+      </c>
+      <c r="F72" s="0">
+        <v>0.47395672802170646</v>
+      </c>
+      <c r="G72" s="0">
+        <v>10.355555555555556</v>
+      </c>
+      <c r="H72" s="0">
+        <v>0.73968224615783884</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" s="0">
+        <v>6</v>
+      </c>
+      <c r="D73" s="0">
+        <v>13.708338888888889</v>
+      </c>
+      <c r="E73" s="0">
+        <v>7.8809259259259257</v>
+      </c>
+      <c r="F73" s="0">
+        <v>0.57490013850720489</v>
+      </c>
+      <c r="G73" s="0">
+        <v>8.3890740740740739</v>
+      </c>
+      <c r="H73" s="0">
+        <v>0.6119686814041142</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="0">
+        <v>4</v>
+      </c>
+      <c r="D74" s="0">
+        <v>13.312505555555555</v>
+      </c>
+      <c r="E74" s="0">
+        <v>8.6577777777777776</v>
+      </c>
+      <c r="F74" s="0">
+        <v>0.65034923303109737</v>
+      </c>
+      <c r="G74" s="0">
+        <v>7.1688888888888886</v>
+      </c>
+      <c r="H74" s="0">
+        <v>0.53850786082092406</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" s="0">
+        <v>6</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" s="0">
+        <v>6</v>
+      </c>
+      <c r="D76" s="0">
+        <v>14.375005555555555</v>
+      </c>
+      <c r="E76" s="0">
+        <v>8.2635185185185165</v>
+      </c>
+      <c r="F76" s="0">
+        <v>0.57485323999230653</v>
+      </c>
+      <c r="G76" s="0">
+        <v>5.7437037037037042</v>
+      </c>
+      <c r="H76" s="0">
+        <v>0.39956184235935244</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" s="0">
+        <v>6</v>
+      </c>
+      <c r="D77" s="0">
+        <v>14.250005555555555</v>
+      </c>
+      <c r="E77" s="0">
+        <v>6.7038888888888897</v>
+      </c>
+      <c r="F77" s="0">
+        <v>0.47044815966933351</v>
+      </c>
+      <c r="G77" s="0">
+        <v>10.078148148148149</v>
+      </c>
+      <c r="H77" s="0">
+        <v>0.70723819081032202</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="0">
+        <v>6</v>
+      </c>
+      <c r="D78" s="0">
+        <v>13.833338888888889</v>
+      </c>
+      <c r="E78" s="0">
+        <v>4.9131481481481485</v>
+      </c>
+      <c r="F78" s="0">
+        <v>0.35516719337328245</v>
+      </c>
+      <c r="G78" s="0">
+        <v>5.5640740740740737</v>
+      </c>
+      <c r="H78" s="0">
+        <v>0.40222206068725808</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="0">
+        <v>5</v>
+      </c>
+      <c r="D79" s="0">
+        <v>14.150005555555556</v>
+      </c>
+      <c r="E79" s="0">
+        <v>9.3515555555555547</v>
+      </c>
+      <c r="F79" s="0">
+        <v>0.66088705893715782</v>
+      </c>
+      <c r="G79" s="0">
+        <v>6.0282222222222224</v>
+      </c>
+      <c r="H79" s="0">
+        <v>0.42602260462402647</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="0">
+        <v>7</v>
+      </c>
+      <c r="D80" s="0">
+        <v>14.928576984126986</v>
+      </c>
+      <c r="E80" s="0">
+        <v>11.647936507936508</v>
+      </c>
+      <c r="F80" s="0">
+        <v>0.78024426040883443</v>
+      </c>
+      <c r="G80" s="0">
+        <v>9.0953968253968256</v>
+      </c>
+      <c r="H80" s="0">
+        <v>0.6092608046344693</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="0">
+        <v>6</v>
+      </c>
+      <c r="D81" s="0">
+        <v>13.500005555555555</v>
+      </c>
+      <c r="E81" s="0">
+        <v>6.4355555555555561</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0.47670762275406475</v>
+      </c>
+      <c r="G81" s="0">
+        <v>10.69425925925926</v>
+      </c>
+      <c r="H81" s="0">
+        <v>0.79216702654306181</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" s="0">
+        <v>7</v>
+      </c>
+      <c r="D82" s="0">
+        <v>14.46429126984127</v>
+      </c>
+      <c r="E82" s="0">
+        <v>8.055238095238094</v>
+      </c>
+      <c r="F82" s="0">
+        <v>0.55690513589377488</v>
+      </c>
+      <c r="G82" s="0">
+        <v>10.205396825396823</v>
+      </c>
+      <c r="H82" s="0">
+        <v>0.70555802804355561</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="0">
+        <v>7</v>
+      </c>
+      <c r="D83" s="0">
+        <v>14.428576984126986</v>
+      </c>
+      <c r="E83" s="0">
+        <v>11.717619047619049</v>
+      </c>
+      <c r="F83" s="0">
+        <v>0.81211189852677179</v>
+      </c>
+      <c r="G83" s="0">
+        <v>9.231587301587302</v>
+      </c>
+      <c r="H83" s="0">
+        <v>0.63981273494559154</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" s="0">
+        <v>7</v>
+      </c>
+      <c r="D84" s="0">
+        <v>15.571434126984128</v>
+      </c>
+      <c r="E84" s="0">
+        <v>10.49126984126984</v>
+      </c>
+      <c r="F84" s="0">
+        <v>0.67375103382990631</v>
+      </c>
+      <c r="G84" s="0">
+        <v>8.8225396825396825</v>
+      </c>
+      <c r="H84" s="0">
+        <v>0.56658491508183451</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="0">
+        <v>7</v>
+      </c>
+      <c r="D85" s="0">
+        <v>14.785719841269842</v>
+      </c>
+      <c r="E85" s="0">
+        <v>4.7047619047619049</v>
+      </c>
+      <c r="F85" s="0">
+        <v>0.31819633776841844</v>
+      </c>
+      <c r="G85" s="0">
+        <v>4.4341269841269844</v>
+      </c>
+      <c r="H85" s="0">
+        <v>0.29989253358842</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C86" s="0">
+        <v>7</v>
+      </c>
+      <c r="D86" s="0">
+        <v>15.642862698412699</v>
+      </c>
+      <c r="E86" s="0">
+        <v>8.4890476190476196</v>
+      </c>
+      <c r="F86" s="0">
+        <v>0.5426786504946447</v>
+      </c>
+      <c r="G86" s="0">
+        <v>12.282222222222222</v>
+      </c>
+      <c r="H86" s="0">
+        <v>0.78516461206736243</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" s="0">
+        <v>7</v>
+      </c>
+      <c r="D87" s="0">
+        <v>14.178576984126986</v>
+      </c>
+      <c r="E87" s="0">
+        <v>11.528571428571428</v>
+      </c>
+      <c r="F87" s="0">
+        <v>0.81309791818161603</v>
+      </c>
+      <c r="G87" s="0">
+        <v>4.6188888888888879</v>
+      </c>
+      <c r="H87" s="0">
+        <v>0.32576533555234533</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" s="0">
+        <v>6</v>
+      </c>
+      <c r="D88" s="0">
+        <v>13.625005555555555</v>
+      </c>
+      <c r="E88" s="0">
+        <v>9.2581481481481482</v>
+      </c>
+      <c r="F88" s="0">
+        <v>0.67949683472776023</v>
+      </c>
+      <c r="G88" s="0">
+        <v>9.7418518518518518</v>
+      </c>
+      <c r="H88" s="0">
+        <v>0.71499800951491288</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C89" s="0">
+        <v>5</v>
+      </c>
+      <c r="D89" s="0">
+        <v>15.100005555555555</v>
+      </c>
+      <c r="E89" s="0">
+        <v>12.200666666666667</v>
+      </c>
+      <c r="F89" s="0">
+        <v>0.80799087270387326</v>
+      </c>
+      <c r="G89" s="0">
+        <v>8.1488888888888891</v>
+      </c>
+      <c r="H89" s="0">
+        <v>0.5396613172695669</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" s="0">
+        <v>7</v>
+      </c>
+      <c r="D90" s="0">
+        <v>14.892862698412699</v>
+      </c>
+      <c r="E90" s="0">
+        <v>12.312063492063492</v>
+      </c>
+      <c r="F90" s="0">
+        <v>0.8267089908359746</v>
+      </c>
+      <c r="G90" s="0">
+        <v>11.161904761904763</v>
+      </c>
+      <c r="H90" s="0">
+        <v>0.74948013608521435</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" s="0">
+        <v>4</v>
+      </c>
+      <c r="D91" s="0">
+        <v>14.250005555555555</v>
+      </c>
+      <c r="E91" s="0">
+        <v>9.6875</v>
+      </c>
+      <c r="F91" s="0">
+        <v>0.6798242963647968</v>
+      </c>
+      <c r="G91" s="0">
+        <v>4.6111111111111116</v>
+      </c>
+      <c r="H91" s="0">
+        <v>0.32358661848474918</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" s="0">
+        <v>6</v>
+      </c>
+      <c r="D92" s="0">
+        <v>13.958338888888889</v>
+      </c>
+      <c r="E92" s="0">
+        <v>4.1055555555555552</v>
+      </c>
+      <c r="F92" s="0">
+        <v>0.29412923616746817</v>
+      </c>
+      <c r="G92" s="0">
+        <v>4.7187037037037038</v>
+      </c>
+      <c r="H92" s="0">
+        <v>0.33805625019320057</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C93" s="0">
+        <v>6</v>
+      </c>
+      <c r="D93" s="0">
+        <v>15.875005555555555</v>
+      </c>
+      <c r="E93" s="0">
+        <v>7.981481481481481</v>
+      </c>
+      <c r="F93" s="0">
+        <v>0.50277031107484005</v>
+      </c>
+      <c r="G93" s="0">
+        <v>10.507222222222223</v>
+      </c>
+      <c r="H93" s="0">
+        <v>0.66187203434049546</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C94" s="0">
+        <v>5</v>
+      </c>
+      <c r="D94" s="0">
+        <v>14.850005555555555</v>
+      </c>
+      <c r="E94" s="0">
+        <v>7.8635555555555552</v>
+      </c>
+      <c r="F94" s="0">
+        <v>0.52953216253940794</v>
+      </c>
+      <c r="G94" s="0">
+        <v>11.575999999999999</v>
+      </c>
+      <c r="H94" s="0">
+        <v>0.77952832789811899</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" s="0">
+        <v>6</v>
+      </c>
+      <c r="D95" s="0">
+        <v>14.625005555555555</v>
+      </c>
+      <c r="E95" s="0">
+        <v>8.8296296296296291</v>
+      </c>
+      <c r="F95" s="0">
+        <v>0.60373512995183409</v>
+      </c>
+      <c r="G95" s="0">
+        <v>6.1996296296296292</v>
+      </c>
+      <c r="H95" s="0">
+        <v>0.4239061384338822</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C96" s="0">
+        <v>6</v>
+      </c>
+      <c r="D96" s="0">
+        <v>14.791672222222223</v>
+      </c>
+      <c r="E96" s="0">
+        <v>10.646481481481482</v>
+      </c>
+      <c r="F96" s="0">
+        <v>0.71976185799241643</v>
+      </c>
+      <c r="G96" s="0">
+        <v>8.5657407407407415</v>
+      </c>
+      <c r="H96" s="0">
+        <v>0.57909211426900253</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C97" s="0">
+        <v>7</v>
+      </c>
+      <c r="D97" s="0">
+        <v>13.821434126984128</v>
+      </c>
+      <c r="E97" s="0">
+        <v>7.610793650793652</v>
+      </c>
+      <c r="F97" s="0">
+        <v>0.55065151567266102</v>
+      </c>
+      <c r="G97" s="0">
+        <v>5.4458730158730146</v>
+      </c>
+      <c r="H97" s="0">
+        <v>0.39401649393537413</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C98" s="0">
+        <v>6</v>
+      </c>
+      <c r="D98" s="0">
+        <v>14.833338888888889</v>
+      </c>
+      <c r="E98" s="0">
+        <v>7.0844444444444443</v>
+      </c>
+      <c r="F98" s="0">
+        <v>0.47760281737722193</v>
+      </c>
+      <c r="G98" s="0">
+        <v>5.6811111111111119</v>
+      </c>
+      <c r="H98" s="0">
+        <v>0.38299611123741156</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" s="0">
+        <v>4</v>
+      </c>
+      <c r="D99" s="0">
+        <v>14.875005555555555</v>
+      </c>
+      <c r="E99" s="0">
+        <v>12.145833333333332</v>
+      </c>
+      <c r="F99" s="0">
+        <v>0.81652630568578677</v>
+      </c>
+      <c r="G99" s="0">
+        <v>6.6261111111111104</v>
+      </c>
+      <c r="H99" s="0">
+        <v>0.44545268143690697</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" s="0">
+        <v>6</v>
+      </c>
+      <c r="D100" s="0">
+        <v>15.708338888888889</v>
+      </c>
+      <c r="E100" s="0">
+        <v>5.9562962962962951</v>
+      </c>
+      <c r="F100" s="0">
+        <v>0.37918053197269713</v>
+      </c>
+      <c r="G100" s="0">
+        <v>12.390555555555556</v>
+      </c>
+      <c r="H100" s="0">
+        <v>0.78878840361152835</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C101" s="0">
+        <v>7</v>
+      </c>
+      <c r="D101" s="0">
+        <v>15.178576984126986</v>
+      </c>
+      <c r="E101" s="0">
+        <v>13.335555555555556</v>
+      </c>
+      <c r="F101" s="0">
+        <v>0.87857745620694405</v>
+      </c>
+      <c r="G101" s="0">
+        <v>9.4911111111111115</v>
+      </c>
+      <c r="H101" s="0">
+        <v>0.62529650315944973</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C102" s="0">
+        <v>7</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E102" s="0"/>
+      <c r="F102" s="0"/>
+      <c r="G102" s="0"/>
+      <c r="H102" s="0"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C103" s="0">
+        <v>7</v>
+      </c>
+      <c r="D103" s="0">
+        <v>14.535719841269842</v>
+      </c>
+      <c r="E103" s="0">
+        <v>11.798571428571426</v>
+      </c>
+      <c r="F103" s="0">
+        <v>0.81169502146518413</v>
+      </c>
+      <c r="G103" s="0">
+        <v>11.613015873015872</v>
+      </c>
+      <c r="H103" s="0">
+        <v>0.7989295335786657</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C104" s="0">
+        <v>4</v>
+      </c>
+      <c r="D104" s="0">
+        <v>13.687505555555553</v>
+      </c>
+      <c r="E104" s="0">
+        <v>7.8391666666666664</v>
+      </c>
+      <c r="F104" s="0">
+        <v>0.57272427286686045</v>
+      </c>
+      <c r="G104" s="0">
+        <v>9.6497222222222216</v>
+      </c>
+      <c r="H104" s="0">
+        <v>0.70500225063328237</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105" s="0">
+        <v>7</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" s="0"/>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C106" s="0">
+        <v>7</v>
+      </c>
+      <c r="D106" s="0">
+        <v>14.107148412698413</v>
+      </c>
+      <c r="E106" s="0">
+        <v>6.0442857142857136</v>
+      </c>
+      <c r="F106" s="0">
+        <v>0.42845552747180349</v>
+      </c>
+      <c r="G106" s="0">
+        <v>9.0430158730158734</v>
+      </c>
+      <c r="H106" s="0">
+        <v>0.64102365754342605</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C107" s="0">
+        <v>7</v>
+      </c>
+      <c r="D107" s="0">
+        <v>14.178576984126986</v>
+      </c>
+      <c r="E107" s="0">
+        <v>11.24079365079365</v>
+      </c>
+      <c r="F107" s="0">
+        <v>0.79280125666897294</v>
+      </c>
+      <c r="G107" s="0">
+        <v>8.1146031746031735</v>
+      </c>
+      <c r="H107" s="0">
+        <v>0.57231435733554414</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" s="0">
+        <v>7</v>
+      </c>
+      <c r="D108" s="0">
+        <v>13.428576984126986</v>
+      </c>
+      <c r="E108" s="0">
+        <v>9.7312698412698406</v>
+      </c>
+      <c r="F108" s="0">
+        <v>0.72466873092901185</v>
+      </c>
+      <c r="G108" s="0">
+        <v>7.8696825396825405</v>
+      </c>
+      <c r="H108" s="0">
+        <v>0.5860399466737809</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C109" s="0">
+        <v>6</v>
+      </c>
+      <c r="D109" s="0">
+        <v>14.208338888888889</v>
+      </c>
+      <c r="E109" s="0">
+        <v>5.2585185185185193</v>
+      </c>
+      <c r="F109" s="0">
+        <v>0.3701008653890393</v>
+      </c>
+      <c r="G109" s="0">
+        <v>6.3603703703703696</v>
+      </c>
+      <c r="H109" s="0">
+        <v>0.44765052551950774</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C110" s="0">
+        <v>7</v>
+      </c>
+      <c r="D110" s="0">
+        <v>13.000005555555557</v>
+      </c>
+      <c r="E110" s="0">
+        <v>10.681587301587301</v>
+      </c>
+      <c r="F110" s="0">
+        <v>0.8216602105237194</v>
+      </c>
+      <c r="G110" s="0">
+        <v>9.5206349206349188</v>
+      </c>
+      <c r="H110" s="0">
+        <v>0.73235621938378881</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C111" s="0">
+        <v>4</v>
+      </c>
+      <c r="D111" s="0">
+        <v>15.500005555555557</v>
+      </c>
+      <c r="E111" s="0">
+        <v>4.9019444444444442</v>
+      </c>
+      <c r="F111" s="0">
+        <v>0.31625436693391862</v>
+      </c>
+      <c r="G111" s="0">
+        <v>3.9455555555555555</v>
+      </c>
+      <c r="H111" s="0">
+        <v>0.25455188008893181</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C112" s="0">
+        <v>4</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E112" s="0"/>
+      <c r="F112" s="0"/>
+      <c r="G112" s="0"/>
+      <c r="H112" s="0"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C113" s="0">
+        <v>6</v>
+      </c>
+      <c r="D113" s="0">
+        <v>13.916672222222223</v>
+      </c>
+      <c r="E113" s="0">
+        <v>8.9090740740740753</v>
+      </c>
+      <c r="F113" s="0">
+        <v>0.64017273180063938</v>
+      </c>
+      <c r="G113" s="0">
+        <v>7.6292592592592596</v>
+      </c>
+      <c r="H113" s="0">
+        <v>0.54821002732799973</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C114" s="0">
+        <v>7</v>
+      </c>
+      <c r="D114" s="0">
+        <v>14.607148412698413</v>
+      </c>
+      <c r="E114" s="0">
+        <v>11.153174603174604</v>
+      </c>
+      <c r="F114" s="0">
+        <v>0.76354222522164761</v>
+      </c>
+      <c r="G114" s="0">
+        <v>5.1865079365079358</v>
+      </c>
+      <c r="H114" s="0">
+        <v>0.35506642295762231</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C115" s="0">
+        <v>6</v>
+      </c>
+      <c r="D115" s="0">
+        <v>14.708338888888889</v>
+      </c>
+      <c r="E115" s="0">
+        <v>12.789999999999999</v>
+      </c>
+      <c r="F115" s="0">
+        <v>0.86957474237025778</v>
+      </c>
+      <c r="G115" s="0">
+        <v>7.7655555555555571</v>
+      </c>
+      <c r="H115" s="0">
+        <v>0.52796958339203659</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C116" s="0">
+        <v>7</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
+      <c r="H116" s="0"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C117" s="0">
+        <v>7</v>
+      </c>
+      <c r="D117" s="0">
+        <v>13.000005555555557</v>
+      </c>
+      <c r="E117" s="0">
+        <v>5.7587301587301587</v>
+      </c>
+      <c r="F117" s="0">
+        <v>0.44297905367195506</v>
+      </c>
+      <c r="G117" s="0">
+        <v>5.57095238095238</v>
+      </c>
+      <c r="H117" s="0">
+        <v>0.42853461540034737</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" s="0">
+        <v>4</v>
+      </c>
+      <c r="D118" s="0">
+        <v>15.812505555555553</v>
+      </c>
+      <c r="E118" s="0">
+        <v>11.003611111111111</v>
+      </c>
+      <c r="F118" s="0">
+        <v>0.69588030008597279</v>
+      </c>
+      <c r="G118" s="0">
+        <v>9.2844444444444445</v>
+      </c>
+      <c r="H118" s="0">
+        <v>0.58715833564924536</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C119" s="0">
+        <v>7</v>
+      </c>
+      <c r="D119" s="0">
+        <v>15.178576984126986</v>
+      </c>
+      <c r="E119" s="0">
+        <v>7.2117460317460322</v>
+      </c>
+      <c r="F119" s="0">
+        <v>0.47512662348306589</v>
+      </c>
+      <c r="G119" s="0">
+        <v>5.4171428571428573</v>
+      </c>
+      <c r="H119" s="0">
+        <v>0.35689398701919428</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C120" s="0">
+        <v>7</v>
+      </c>
+      <c r="D120" s="0">
+        <v>14.142862698412699</v>
+      </c>
+      <c r="E120" s="0">
+        <v>11.248888888888889</v>
+      </c>
+      <c r="F120" s="0">
+        <v>0.79537566960551698</v>
+      </c>
+      <c r="G120" s="0">
+        <v>9.671111111111113</v>
+      </c>
+      <c r="H120" s="0">
+        <v>0.68381566853481046</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C121" s="0">
+        <v>7</v>
+      </c>
+      <c r="D121" s="0">
+        <v>13.107148412698413</v>
+      </c>
+      <c r="E121" s="0">
+        <v>3.9896825396825402</v>
+      </c>
+      <c r="F121" s="0">
+        <v>0.30438981951385191</v>
+      </c>
+      <c r="G121" s="0">
+        <v>10.957142857142856</v>
+      </c>
+      <c r="H121" s="0">
+        <v>0.83596694812178995</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="C122" s="0">
+        <v>7</v>
+      </c>
+      <c r="D122" s="0">
+        <v>13.96429126984127</v>
+      </c>
+      <c r="E122" s="0">
+        <v>8.6841269841269835</v>
+      </c>
+      <c r="F122" s="0">
+        <v>0.6218809688453093</v>
+      </c>
+      <c r="G122" s="0">
+        <v>10.9215873015873</v>
+      </c>
+      <c r="H122" s="0">
+        <v>0.78210824241217958</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C123" s="0">
+        <v>7</v>
+      </c>
+      <c r="D123" s="0">
+        <v>14.750005555555559</v>
+      </c>
+      <c r="E123" s="0">
+        <v>6.6134920634920631</v>
+      </c>
+      <c r="F123" s="0">
+        <v>0.44837217440918897</v>
+      </c>
+      <c r="G123" s="0">
+        <v>10.196507936507937</v>
+      </c>
+      <c r="H123" s="0">
+        <v>0.69128841328927115</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="C124" s="0">
+        <v>6</v>
+      </c>
+      <c r="D124" s="0">
+        <v>14.625005555555555</v>
+      </c>
+      <c r="E124" s="0">
+        <v>7.6940740740740736</v>
+      </c>
+      <c r="F124" s="0">
+        <v>0.526090335135042</v>
+      </c>
+      <c r="G124" s="0">
+        <v>8.9155555555555548</v>
+      </c>
+      <c r="H124" s="0">
+        <v>0.60961040470639893</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="C125" s="0">
+        <v>7</v>
+      </c>
+      <c r="D125" s="0">
+        <v>13.035719841269842</v>
+      </c>
+      <c r="E125" s="0">
+        <v>5.455396825396825</v>
+      </c>
+      <c r="F125" s="0">
+        <v>0.41849601647049522</v>
+      </c>
+      <c r="G125" s="0">
+        <v>3.8846031746031744</v>
+      </c>
+      <c r="H125" s="0">
+        <v>0.29799682885979895</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="C126" s="0">
+        <v>4</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="E126" s="0"/>
+      <c r="F126" s="0"/>
+      <c r="G126" s="0"/>
+      <c r="H126" s="0"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C127" s="0">
+        <v>4</v>
+      </c>
+      <c r="D127" s="0">
+        <v>12.812505555555555</v>
+      </c>
+      <c r="E127" s="0">
+        <v>9.8652777777777771</v>
+      </c>
+      <c r="F127" s="0">
+        <v>0.76997256586555407</v>
+      </c>
+      <c r="G127" s="0">
+        <v>6.9227777777777773</v>
+      </c>
+      <c r="H127" s="0">
+        <v>0.54031412886108232</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="C128" s="0">
+        <v>7</v>
+      </c>
+      <c r="D128" s="0">
+        <v>14.607148412698413</v>
+      </c>
+      <c r="E128" s="0">
+        <v>8.428571428571427</v>
+      </c>
+      <c r="F128" s="0">
+        <v>0.57701689545676338</v>
+      </c>
+      <c r="G128" s="0">
+        <v>10.777301587301588</v>
+      </c>
+      <c r="H128" s="0">
+        <v>0.73781009700240818</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H78"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.82421875" customWidth="true"/>
@@ -1648,21 +5452,1583 @@
         <v>0.5875878768333751</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0">
+        <v>14.96429126984127</v>
+      </c>
+      <c r="E18" s="0">
+        <v>9.5198412698412689</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.63617054080117807</v>
+      </c>
+      <c r="G18" s="0">
+        <v>8.0974603174603175</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.54111886566788336</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="0">
+        <v>7</v>
+      </c>
+      <c r="D19" s="0">
+        <v>14.250005555555557</v>
+      </c>
+      <c r="E19" s="0">
+        <v>8.2917460317460314</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.58187668765598355</v>
+      </c>
+      <c r="G19" s="0">
+        <v>5.1552380952380954</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.361770953361366</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="0">
+        <v>6</v>
+      </c>
+      <c r="D20" s="0">
+        <v>13.500005555555555</v>
+      </c>
+      <c r="E20" s="0">
+        <v>8.1485185185185198</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.60359371594222955</v>
+      </c>
+      <c r="G20" s="0">
+        <v>8.6070370370370366</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.63755803667021804</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="0">
+        <v>5</v>
+      </c>
+      <c r="D21" s="0">
+        <v>15.600005555555555</v>
+      </c>
+      <c r="E21" s="0">
+        <v>9.3502222222222215</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.59937300592129417</v>
+      </c>
+      <c r="G21" s="0">
+        <v>7.4615555555555559</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.47830467296842133</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="0">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0">
+        <v>14.937505555555553</v>
+      </c>
+      <c r="E22" s="0">
+        <v>12.097222222222223</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.80985557978407097</v>
+      </c>
+      <c r="G22" s="0">
+        <v>9.0975000000000001</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.60903743039054203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="0">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0">
+        <v>12.562505555555555</v>
+      </c>
+      <c r="E23" s="0">
+        <v>9.8691666666666666</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.78560495937868025</v>
+      </c>
+      <c r="G23" s="0">
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.2531342164138346</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="0">
+        <v>7</v>
+      </c>
+      <c r="D24" s="0">
+        <v>14.071434126984128</v>
+      </c>
+      <c r="E24" s="0">
+        <v>9.2977777777777781</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.66075552028828866</v>
+      </c>
+      <c r="G24" s="0">
+        <v>5.4874603174603171</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.38997164524526129</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="0">
+        <v>5</v>
+      </c>
+      <c r="D25" s="0">
+        <v>14.050005555555554</v>
+      </c>
+      <c r="E25" s="0">
+        <v>3.9066666666666672</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.27805445707613408</v>
+      </c>
+      <c r="G25" s="0">
+        <v>11.873555555555555</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.84509258794282804</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="0">
+        <v>7</v>
+      </c>
+      <c r="D26" s="0">
+        <v>14.642862698412699</v>
+      </c>
+      <c r="E26" s="0">
+        <v>8.4360317460317464</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.57611902261066894</v>
+      </c>
+      <c r="G26" s="0">
+        <v>6.7714285714285705</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.46243884893919002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="0">
+        <v>7</v>
+      </c>
+      <c r="D27" s="0">
+        <v>13.285719841269842</v>
+      </c>
+      <c r="E27" s="0">
+        <v>9.3598412698412705</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.70450388700554312</v>
+      </c>
+      <c r="G27" s="0">
+        <v>8.2787301587301574</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.62312996643310825</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="0">
+        <v>7</v>
+      </c>
+      <c r="D28" s="0">
+        <v>13.571434126984128</v>
+      </c>
+      <c r="E28" s="0">
+        <v>8.3658730158730172</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.61643249619722384</v>
+      </c>
+      <c r="G28" s="0">
+        <v>10.097936507936508</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.74405817494694582</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="0">
+        <v>6</v>
+      </c>
+      <c r="D29" s="0">
+        <v>13.375005555555555</v>
+      </c>
+      <c r="E29" s="0">
+        <v>8.8346296296296298</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.66053278205630384</v>
+      </c>
+      <c r="G29" s="0">
+        <v>10.060740740740741</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.75220460275336687</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="0">
+        <v>5</v>
+      </c>
+      <c r="D30" s="0">
+        <v>13.800005555555554</v>
+      </c>
+      <c r="E30" s="0">
+        <v>6.4182222222222212</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.46508837959405008</v>
+      </c>
+      <c r="G30" s="0">
+        <v>5.5331111111111113</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.40094991910228706</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="0">
+        <v>7</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="0">
+        <v>7</v>
+      </c>
+      <c r="D32" s="0">
+        <v>15.285719841269842</v>
+      </c>
+      <c r="E32" s="0">
+        <v>5.6409523809523803</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.36903413378821714</v>
+      </c>
+      <c r="G32" s="0">
+        <v>4.4250793650793652</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.28949106820158477</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="0">
+        <v>6</v>
+      </c>
+      <c r="D33" s="0">
+        <v>14.166672222222223</v>
+      </c>
+      <c r="E33" s="0">
+        <v>6.8787037037037031</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.48555536514168679</v>
+      </c>
+      <c r="G33" s="0">
+        <v>5.259444444444445</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.37125475637068378</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="0">
+        <v>5</v>
+      </c>
+      <c r="D34" s="0">
+        <v>14.200005555555554</v>
+      </c>
+      <c r="E34" s="0">
+        <v>14.150444444444446</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.99650978227316833</v>
+      </c>
+      <c r="G34" s="0">
+        <v>8.198888888888888</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.57738631557655884</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="0">
+        <v>7</v>
+      </c>
+      <c r="D35" s="0">
+        <v>14.857148412698413</v>
+      </c>
+      <c r="E35" s="0">
+        <v>8.8230158730158728</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.59385661554506897</v>
+      </c>
+      <c r="G35" s="0">
+        <v>6.1792063492063489</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.41590796413697922</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="0">
+        <v>7</v>
+      </c>
+      <c r="D36" s="0">
+        <v>15.21429126984127</v>
+      </c>
+      <c r="E36" s="0">
+        <v>6.4249206349206345</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.42229509879678184</v>
+      </c>
+      <c r="G36" s="0">
+        <v>5.8579365079365084</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.38502855006782211</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="0">
+        <v>5</v>
+      </c>
+      <c r="D37" s="0">
+        <v>13.850005555555555</v>
+      </c>
+      <c r="E37" s="0">
+        <v>5.8700000000000001</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.42382654479480758</v>
+      </c>
+      <c r="G37" s="0">
+        <v>4.1362222222222229</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.29864408397750347</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="0">
+        <v>6</v>
+      </c>
+      <c r="D38" s="0">
+        <v>13.375005555555555</v>
+      </c>
+      <c r="E38" s="0">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.47214933659425273</v>
+      </c>
+      <c r="G38" s="0">
+        <v>7.0451851851851837</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.52674259879158225</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="0">
+        <v>7</v>
+      </c>
+      <c r="D39" s="0">
+        <v>13.250005555555557</v>
+      </c>
+      <c r="E39" s="0">
+        <v>9.4598412698412684</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.71394998516622343</v>
+      </c>
+      <c r="G39" s="0">
+        <v>5.0146031746031738</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.37846045826755259</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C40" s="0">
+        <v>5</v>
+      </c>
+      <c r="D40" s="0">
+        <v>13.900005555555556</v>
+      </c>
+      <c r="E40" s="0">
+        <v>4.8511111111111109</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.34900065987183859</v>
+      </c>
+      <c r="G40" s="0">
+        <v>6.7913333333333341</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.48858493661673202</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C41" s="0">
+        <v>3</v>
+      </c>
+      <c r="D41" s="0">
+        <v>13.250005555555555</v>
+      </c>
+      <c r="E41" s="0">
+        <v>9.9785185185185181</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.75309542148340114</v>
+      </c>
+      <c r="G41" s="0">
+        <v>7.2959259259259257</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.55063568806330343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" s="0">
+        <v>6</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="0">
+        <v>6</v>
+      </c>
+      <c r="D43" s="0">
+        <v>14.833338888888889</v>
+      </c>
+      <c r="E43" s="0">
+        <v>12.336851851851852</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.8316975661557181</v>
+      </c>
+      <c r="G43" s="0">
+        <v>11.332037037037034</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.76395726693235921</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" s="0">
+        <v>7</v>
+      </c>
+      <c r="D44" s="0">
+        <v>16.178576984126984</v>
+      </c>
+      <c r="E44" s="0">
+        <v>8.3019047619047619</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.51314183998072704</v>
+      </c>
+      <c r="G44" s="0">
+        <v>8.9187301587301597</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.55126789998158943</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="0">
+        <v>3</v>
+      </c>
+      <c r="D45" s="0">
+        <v>13.250005555555555</v>
+      </c>
+      <c r="E45" s="0">
+        <v>9.5062962962962967</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0.71745602342864156</v>
+      </c>
+      <c r="G45" s="0">
+        <v>11.705925925925925</v>
+      </c>
+      <c r="H45" s="0">
+        <v>0.88346573719116539</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" s="0">
+        <v>6</v>
+      </c>
+      <c r="D46" s="0">
+        <v>13.583338888888889</v>
+      </c>
+      <c r="E46" s="0">
+        <v>9.4283333333333328</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.69411014555822259</v>
+      </c>
+      <c r="G46" s="0">
+        <v>4.5809259259259258</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.33724594250336365</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" s="0">
+        <v>4</v>
+      </c>
+      <c r="D47" s="0">
+        <v>15.187505555555555</v>
+      </c>
+      <c r="E47" s="0">
+        <v>5.6941666666666659</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0.37492441703725027</v>
+      </c>
+      <c r="G47" s="0">
+        <v>4.4380555555555556</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.29221754285595142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C48" s="0">
+        <v>4</v>
+      </c>
+      <c r="D48" s="0">
+        <v>13.687505555555555</v>
+      </c>
+      <c r="E48" s="0">
+        <v>6.1158333333333346</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.44681869231103316</v>
+      </c>
+      <c r="G48" s="0">
+        <v>6.8755555555555565</v>
+      </c>
+      <c r="H48" s="0">
+        <v>0.50232348967083129</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" s="0">
+        <v>3</v>
+      </c>
+      <c r="D49" s="0">
+        <v>14.416672222222223</v>
+      </c>
+      <c r="E49" s="0">
+        <v>6.2670370370370376</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.43470760383778917</v>
+      </c>
+      <c r="G49" s="0">
+        <v>2.1474074074074072</v>
+      </c>
+      <c r="H49" s="0">
+        <v>0.14895305756465346</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C50" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" s="0">
+        <v>14.750005555555555</v>
+      </c>
+      <c r="E50" s="0">
+        <v>10.002962962962963</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.67816672510983367</v>
+      </c>
+      <c r="G50" s="0">
+        <v>7.7564814814814822</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.52586295322173771</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C51" s="0">
+        <v>6</v>
+      </c>
+      <c r="D51" s="0">
+        <v>15.791672222222223</v>
+      </c>
+      <c r="E51" s="0">
+        <v>11.96037037037037</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.75738466465505783</v>
+      </c>
+      <c r="G51" s="0">
+        <v>13.259629629629631</v>
+      </c>
+      <c r="H51" s="0">
+        <v>0.83965962838125063</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C52" s="0">
+        <v>6</v>
+      </c>
+      <c r="D52" s="0">
+        <v>14.166672222222223</v>
+      </c>
+      <c r="E52" s="0">
+        <v>11.911111111111111</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.84078398400628074</v>
+      </c>
+      <c r="G52" s="0">
+        <v>3.0964814814814816</v>
+      </c>
+      <c r="H52" s="0">
+        <v>0.21857507768297607</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C53" s="0">
+        <v>4</v>
+      </c>
+      <c r="D53" s="0">
+        <v>14.750005555555555</v>
+      </c>
+      <c r="E53" s="0">
+        <v>11.200277777777778</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0.75934058028603379</v>
+      </c>
+      <c r="G53" s="0">
+        <v>10.411111111111111</v>
+      </c>
+      <c r="H53" s="0">
+        <v>0.7058377755789923</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C54" s="0">
+        <v>7</v>
+      </c>
+      <c r="D54" s="0">
+        <v>13.96429126984127</v>
+      </c>
+      <c r="E54" s="0">
+        <v>7.8595238095238091</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.56283012561461321</v>
+      </c>
+      <c r="G54" s="0">
+        <v>4.3249206349206348</v>
+      </c>
+      <c r="H54" s="0">
+        <v>0.30971286342767579</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C55" s="0">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0">
+        <v>13.96429126984127</v>
+      </c>
+      <c r="E55" s="0">
+        <v>5.9061904761904751</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.4229495333534109</v>
+      </c>
+      <c r="G55" s="0">
+        <v>5.3690476190476195</v>
+      </c>
+      <c r="H55" s="0">
+        <v>0.3844840755107401</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C56" s="0">
+        <v>5</v>
+      </c>
+      <c r="D56" s="0">
+        <v>14.250005555555555</v>
+      </c>
+      <c r="E56" s="0">
+        <v>8.27911111111111</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.58099002690447288</v>
+      </c>
+      <c r="G56" s="0">
+        <v>7.4377777777777769</v>
+      </c>
+      <c r="H56" s="0">
+        <v>0.5219491142498579</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C57" s="0">
+        <v>6</v>
+      </c>
+      <c r="D57" s="0">
+        <v>14.625005555555555</v>
+      </c>
+      <c r="E57" s="0">
+        <v>11.932037037037039</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.81586547038981838</v>
+      </c>
+      <c r="G57" s="0">
+        <v>11.076666666666666</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0.75737862967573422</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C58" s="0">
+        <v>6</v>
+      </c>
+      <c r="D58" s="0">
+        <v>13.291672222222223</v>
+      </c>
+      <c r="E58" s="0">
+        <v>5.8520370370370367</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0.44027846453007397</v>
+      </c>
+      <c r="G58" s="0">
+        <v>5.2729629629629633</v>
+      </c>
+      <c r="H58" s="0">
+        <v>0.39671178124202805</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C59" s="0">
+        <v>4</v>
+      </c>
+      <c r="D59" s="0">
+        <v>14.625005555555555</v>
+      </c>
+      <c r="E59" s="0">
+        <v>10.819722222222223</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0.73980978544737508</v>
+      </c>
+      <c r="G59" s="0">
+        <v>10.285555555555556</v>
+      </c>
+      <c r="H59" s="0">
+        <v>0.70328558279749942</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C60" s="0">
+        <v>7</v>
+      </c>
+      <c r="D60" s="0">
+        <v>16.035719841269842</v>
+      </c>
+      <c r="E60" s="0">
+        <v>13.401904761904762</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0.8357532368090741</v>
+      </c>
+      <c r="G60" s="0">
+        <v>11.911428571428571</v>
+      </c>
+      <c r="H60" s="0">
+        <v>0.74280597873586474</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" s="0">
+        <v>7</v>
+      </c>
+      <c r="D61" s="0">
+        <v>14.178576984126986</v>
+      </c>
+      <c r="E61" s="0">
+        <v>12.187777777777779</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0.85959104298139932</v>
+      </c>
+      <c r="G61" s="0">
+        <v>5.2820634920634921</v>
+      </c>
+      <c r="H61" s="0">
+        <v>0.3725383370966493</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C62" s="0">
+        <v>7</v>
+      </c>
+      <c r="D62" s="0">
+        <v>13.46429126984127</v>
+      </c>
+      <c r="E62" s="0">
+        <v>7.9696825396825393</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0.5919125173364207</v>
+      </c>
+      <c r="G62" s="0">
+        <v>7.9226984126984137</v>
+      </c>
+      <c r="H62" s="0">
+        <v>0.58842298149361216</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C63" s="0">
+        <v>6</v>
+      </c>
+      <c r="D63" s="0">
+        <v>15.583338888888889</v>
+      </c>
+      <c r="E63" s="0">
+        <v>9.9905555555555541</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0.6411049407825522</v>
+      </c>
+      <c r="G63" s="0">
+        <v>7.735555555555556</v>
+      </c>
+      <c r="H63" s="0">
+        <v>0.49639911001814263</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C64" s="0">
+        <v>4</v>
+      </c>
+      <c r="D64" s="0">
+        <v>14.625005555555555</v>
+      </c>
+      <c r="E64" s="0">
+        <v>11.184722222222222</v>
+      </c>
+      <c r="F64" s="0">
+        <v>0.764767040924201</v>
+      </c>
+      <c r="G64" s="0">
+        <v>10.2475</v>
+      </c>
+      <c r="H64" s="0">
+        <v>0.70068349451719114</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C65" s="0">
+        <v>7</v>
+      </c>
+      <c r="D65" s="0">
+        <v>14.642862698412699</v>
+      </c>
+      <c r="E65" s="0">
+        <v>9.7795238095238091</v>
+      </c>
+      <c r="F65" s="0">
+        <v>0.66786966530690195</v>
+      </c>
+      <c r="G65" s="0">
+        <v>9.6611111111111132</v>
+      </c>
+      <c r="H65" s="0">
+        <v>0.65978294750782485</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C66" s="0">
+        <v>7</v>
+      </c>
+      <c r="D66" s="0">
+        <v>13.071434126984128</v>
+      </c>
+      <c r="E66" s="0">
+        <v>9.2707936507936513</v>
+      </c>
+      <c r="F66" s="0">
+        <v>0.70924074288493011</v>
+      </c>
+      <c r="G66" s="0">
+        <v>10.106825396825396</v>
+      </c>
+      <c r="H66" s="0">
+        <v>0.77319942851268963</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C67" s="0">
+        <v>5</v>
+      </c>
+      <c r="D67" s="0">
+        <v>17.200005555555556</v>
+      </c>
+      <c r="E67" s="0">
+        <v>12.155777777777777</v>
+      </c>
+      <c r="F67" s="0">
+        <v>0.70673103787757163</v>
+      </c>
+      <c r="G67" s="0">
+        <v>9.6837777777777774</v>
+      </c>
+      <c r="H67" s="0">
+        <v>0.56301015406648769</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C68" s="0">
+        <v>7</v>
+      </c>
+      <c r="D68" s="0">
+        <v>15.46429126984127</v>
+      </c>
+      <c r="E68" s="0">
+        <v>6.4779365079365094</v>
+      </c>
+      <c r="F68" s="0">
+        <v>0.41889643662945575</v>
+      </c>
+      <c r="G68" s="0">
+        <v>7.2015873015873009</v>
+      </c>
+      <c r="H68" s="0">
+        <v>0.46569139030845608</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C69" s="0">
+        <v>7</v>
+      </c>
+      <c r="D69" s="0">
+        <v>15.035719841269842</v>
+      </c>
+      <c r="E69" s="0">
+        <v>8.6295238095238105</v>
+      </c>
+      <c r="F69" s="0">
+        <v>0.57393486315418096</v>
+      </c>
+      <c r="G69" s="0">
+        <v>8.3207936507936502</v>
+      </c>
+      <c r="H69" s="0">
+        <v>0.55340174854514435</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C70" s="0">
+        <v>7</v>
+      </c>
+      <c r="D70" s="0">
+        <v>12.750005555555557</v>
+      </c>
+      <c r="E70" s="0">
+        <v>7.3863492063492062</v>
+      </c>
+      <c r="F70" s="0">
+        <v>0.57932125395276823</v>
+      </c>
+      <c r="G70" s="0">
+        <v>6.4261904761904765</v>
+      </c>
+      <c r="H70" s="0">
+        <v>0.50401471969479994</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C71" s="0">
+        <v>7</v>
+      </c>
+      <c r="D71" s="0">
+        <v>15.785719841269842</v>
+      </c>
+      <c r="E71" s="0">
+        <v>10.484603174603174</v>
+      </c>
+      <c r="F71" s="0">
+        <v>0.6641827727863544</v>
+      </c>
+      <c r="G71" s="0">
+        <v>10.423492063492063</v>
+      </c>
+      <c r="H71" s="0">
+        <v>0.66031148204221335</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" s="0">
+        <v>5</v>
+      </c>
+      <c r="D72" s="0">
+        <v>13.700005555555554</v>
+      </c>
+      <c r="E72" s="0">
+        <v>7.9917777777777772</v>
+      </c>
+      <c r="F72" s="0">
+        <v>0.58334120707980253</v>
+      </c>
+      <c r="G72" s="0">
+        <v>6.8157777777777779</v>
+      </c>
+      <c r="H72" s="0">
+        <v>0.4975018258305654</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="C73" s="0">
+        <v>6</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
+      <c r="H73" s="0"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C74" s="0">
+        <v>5</v>
+      </c>
+      <c r="D74" s="0">
+        <v>14.150005555555556</v>
+      </c>
+      <c r="E74" s="0">
+        <v>8.786888888888889</v>
+      </c>
+      <c r="F74" s="0">
+        <v>0.62098130310902899</v>
+      </c>
+      <c r="G74" s="0">
+        <v>6.8466666666666667</v>
+      </c>
+      <c r="H74" s="0">
+        <v>0.48386317869525769</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="C75" s="0">
+        <v>4</v>
+      </c>
+      <c r="D75" s="0">
+        <v>14.562505555555555</v>
+      </c>
+      <c r="E75" s="0">
+        <v>11.9375</v>
+      </c>
+      <c r="F75" s="0">
+        <v>0.81974217654089598</v>
+      </c>
+      <c r="G75" s="0">
+        <v>8.0208333333333321</v>
+      </c>
+      <c r="H75" s="0">
+        <v>0.55078662821683233</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C76" s="0">
+        <v>7</v>
+      </c>
+      <c r="D76" s="0">
+        <v>14.928576984126986</v>
+      </c>
+      <c r="E76" s="0">
+        <v>6.8826984126984145</v>
+      </c>
+      <c r="F76" s="0">
+        <v>0.46104182736348803</v>
+      </c>
+      <c r="G76" s="0">
+        <v>6.8160317460317463</v>
+      </c>
+      <c r="H76" s="0">
+        <v>0.45657611929649999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C77" s="0">
+        <v>3</v>
+      </c>
+      <c r="D77" s="0">
+        <v>13.500005555555553</v>
+      </c>
+      <c r="E77" s="0">
+        <v>7.6992592592592599</v>
+      </c>
+      <c r="F77" s="0">
+        <v>0.5703152659882309</v>
+      </c>
+      <c r="G77" s="0">
+        <v>10.602962962962962</v>
+      </c>
+      <c r="H77" s="0">
+        <v>0.78540434071151966</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C78" s="0">
+        <v>7</v>
+      </c>
+      <c r="D78" s="0">
+        <v>14.035719841269842</v>
+      </c>
+      <c r="E78" s="0">
+        <v>7.605079365079364</v>
+      </c>
+      <c r="F78" s="0">
+        <v>0.54183750111040374</v>
+      </c>
+      <c r="G78" s="0">
+        <v>7.2957142857142854</v>
+      </c>
+      <c r="H78" s="0">
+        <v>0.51979623191554292</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.82421875" customWidth="true"/>
     <col min="2" max="2" width="9.37890625" customWidth="true"/>
     <col min="3" max="3" width="9.37890625" customWidth="true"/>
     <col min="4" max="4" width="54.046875" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="14.82421875" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="15.046875" customWidth="true"/>
   </cols>
@@ -2093,6 +7459,1058 @@
         <v>0.46467416333490968</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="0">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0">
+        <v>14.312505555555555</v>
+      </c>
+      <c r="E18" s="0">
+        <v>8.8591666666666669</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.61898083688274164</v>
+      </c>
+      <c r="G18" s="0">
+        <v>11.314722222222223</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.79054797067521765</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="0">
+        <v>7</v>
+      </c>
+      <c r="D19" s="0">
+        <v>14.571434126984128</v>
+      </c>
+      <c r="E19" s="0">
+        <v>12.435079365079364</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.85338747419867533</v>
+      </c>
+      <c r="G19" s="0">
+        <v>7.7920634920634919</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.53474925145725705</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="0">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0">
+        <v>12.892862698412699</v>
+      </c>
+      <c r="E20" s="0">
+        <v>8.9611111111111104</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.69504432962078733</v>
+      </c>
+      <c r="G20" s="0">
+        <v>10.400476190476189</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.80668478628541052</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" s="0">
+        <v>13.875005555555555</v>
+      </c>
+      <c r="E21" s="0">
+        <v>9.3909259259259255</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.67682321915653554</v>
+      </c>
+      <c r="G21" s="0">
+        <v>6.9751851851851852</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.50271584809508918</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="0">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0">
+        <v>14.250005555555555</v>
+      </c>
+      <c r="E22" s="0">
+        <v>10.749444444444444</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.75434668446523023</v>
+      </c>
+      <c r="G22" s="0">
+        <v>9.2952777777777769</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.65229994062380481</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="0">
+        <v>7</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="0">
+        <v>7</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="0">
+        <v>7</v>
+      </c>
+      <c r="D25" s="0">
+        <v>14.678576984126986</v>
+      </c>
+      <c r="E25" s="0">
+        <v>7.5723809523809518</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.51587977230827753</v>
+      </c>
+      <c r="G25" s="0">
+        <v>7.7014285714285711</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.52467133426875689</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="0">
+        <v>7</v>
+      </c>
+      <c r="D26" s="0">
+        <v>14.71429126984127</v>
+      </c>
+      <c r="E26" s="0">
+        <v>12.749047619047619</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.86643980231506923</v>
+      </c>
+      <c r="G26" s="0">
+        <v>11.681428571428571</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.79388319540548169</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="0">
+        <v>3</v>
+      </c>
+      <c r="D27" s="0">
+        <v>13.083338888888889</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.0062962962962962964</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.00048124537243650144</v>
+      </c>
+      <c r="G27" s="0">
+        <v>5.0992592592592594</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.38975213457092656</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="0">
+        <v>7</v>
+      </c>
+      <c r="D28" s="0">
+        <v>14.071434126984128</v>
+      </c>
+      <c r="E28" s="0">
+        <v>5.2852380952380971</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.3756005285277102</v>
+      </c>
+      <c r="G28" s="0">
+        <v>7.541269841269842</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.53592759438842863</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" s="0">
+        <v>7</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" s="0">
+        <v>6</v>
+      </c>
+      <c r="D30" s="0">
+        <v>13.958338888888889</v>
+      </c>
+      <c r="E30" s="0">
+        <v>7.0851851851851846</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.50759515452265813</v>
+      </c>
+      <c r="G30" s="0">
+        <v>7.1175925925925929</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.50991687830837351</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C31" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" s="0">
+        <v>14.041672222222223</v>
+      </c>
+      <c r="E31" s="0">
+        <v>7.2103703703703701</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.51349798344952846</v>
+      </c>
+      <c r="G31" s="0">
+        <v>11.375</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.81008870026164181</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="0">
+        <v>7</v>
+      </c>
+      <c r="D32" s="0">
+        <v>13.571434126984128</v>
+      </c>
+      <c r="E32" s="0">
+        <v>11.87142857142857</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.87473648402600057</v>
+      </c>
+      <c r="G32" s="0">
+        <v>4.7896825396825395</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.35292383213644296</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C33" s="0">
+        <v>7</v>
+      </c>
+      <c r="D33" s="0">
+        <v>18.964291269841272</v>
+      </c>
+      <c r="E33" s="0">
+        <v>15.405396825396826</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.81233707108769615</v>
+      </c>
+      <c r="G33" s="0">
+        <v>13.939523809523809</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.73504058818647755</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="C34" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" s="0">
+        <v>14.458338888888889</v>
+      </c>
+      <c r="E34" s="0">
+        <v>7.9435185185185198</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.5494074097698074</v>
+      </c>
+      <c r="G34" s="0">
+        <v>7.1427777777777779</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.49402478615762302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C35" s="0">
+        <v>7</v>
+      </c>
+      <c r="D35" s="0">
+        <v>15.107148412698413</v>
+      </c>
+      <c r="E35" s="0">
+        <v>6.2825396825396824</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.41586535796913549</v>
+      </c>
+      <c r="G35" s="0">
+        <v>7.2431746031746025</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.47945346171924175</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C36" s="0">
+        <v>7</v>
+      </c>
+      <c r="D36" s="0">
+        <v>14.142862698412699</v>
+      </c>
+      <c r="E36" s="0">
+        <v>9.0861904761904757</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.64245766008958349</v>
+      </c>
+      <c r="G36" s="0">
+        <v>4.4198412698412692</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.31251390641990201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" s="0">
+        <v>4</v>
+      </c>
+      <c r="D37" s="0">
+        <v>13.352712499999999</v>
+      </c>
+      <c r="E37" s="0">
+        <v>10.271111111111111</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.76921532693159622</v>
+      </c>
+      <c r="G37" s="0">
+        <v>9.9372222222222231</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.74421000393906656</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38" s="0">
+        <v>7</v>
+      </c>
+      <c r="D38" s="0">
+        <v>15.071434126984128</v>
+      </c>
+      <c r="E38" s="0">
+        <v>6.480952380952381</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.43001563927806868</v>
+      </c>
+      <c r="G38" s="0">
+        <v>4.2169841269841273</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.27979979154299417</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C39" s="0">
+        <v>6</v>
+      </c>
+      <c r="D39" s="0">
+        <v>12.750005555555555</v>
+      </c>
+      <c r="E39" s="0">
+        <v>6.9557407407407412</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.54554805567985964</v>
+      </c>
+      <c r="G39" s="0">
+        <v>5.9542592592592589</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.46700052273034592</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C40" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" s="0">
+        <v>14.666672222222223</v>
+      </c>
+      <c r="E40" s="0">
+        <v>11.965370370370371</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.81582039804782902</v>
+      </c>
+      <c r="G40" s="0">
+        <v>6.9511111111111106</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.47393921441696418</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C41" s="0">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0">
+        <v>16.900005555555556</v>
+      </c>
+      <c r="E41" s="0">
+        <v>4.7751111111111104</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.28255086043692945</v>
+      </c>
+      <c r="G41" s="0">
+        <v>13.90288888888889</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.82265587683896235</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C42" s="0">
+        <v>3</v>
+      </c>
+      <c r="D42" s="0">
+        <v>14.583338888888889</v>
+      </c>
+      <c r="E42" s="0">
+        <v>11.016296296296296</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0.75540288683064627</v>
+      </c>
+      <c r="G42" s="0">
+        <v>9.0951851851851853</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.62366960368142077</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C43" s="0">
+        <v>5</v>
+      </c>
+      <c r="D43" s="0">
+        <v>13.850005555555555</v>
+      </c>
+      <c r="E43" s="0">
+        <v>7.2240000000000011</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.52158823843231517</v>
+      </c>
+      <c r="G43" s="0">
+        <v>7.4497777777777774</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.53788987649824449</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C44" s="0">
+        <v>5</v>
+      </c>
+      <c r="D44" s="0">
+        <v>13.500005555555555</v>
+      </c>
+      <c r="E44" s="0">
+        <v>11.929777777777778</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.88368687914120203</v>
+      </c>
+      <c r="G44" s="0">
+        <v>7.6466666666666656</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.56641951999196705</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C45" s="0">
+        <v>7</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="C46" s="0">
+        <v>6</v>
+      </c>
+      <c r="D46" s="0">
+        <v>14.833338888888889</v>
+      </c>
+      <c r="E46" s="0">
+        <v>12.219444444444443</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.82378246300282276</v>
+      </c>
+      <c r="G46" s="0">
+        <v>6.2181481481481482</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.41920084174749994</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="C47" s="0">
+        <v>4</v>
+      </c>
+      <c r="D47" s="0">
+        <v>14.187505555555555</v>
+      </c>
+      <c r="E47" s="0">
+        <v>7.7422222222222228</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0.54570707950775155</v>
+      </c>
+      <c r="G47" s="0">
+        <v>11.861388888888889</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.83604470443672863</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C48" s="0">
+        <v>6</v>
+      </c>
+      <c r="D48" s="0">
+        <v>13.458338888888889</v>
+      </c>
+      <c r="E48" s="0">
+        <v>6.0822222222222218</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.45192963800634134</v>
+      </c>
+      <c r="G48" s="0">
+        <v>10.120185185185186</v>
+      </c>
+      <c r="H48" s="0">
+        <v>0.75196391387798533</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C49" s="0">
+        <v>7</v>
+      </c>
+      <c r="D49" s="0">
+        <v>15.285719841269842</v>
+      </c>
+      <c r="E49" s="0">
+        <v>9.5880952380952387</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.62725833900268058</v>
+      </c>
+      <c r="G49" s="0">
+        <v>4.4133333333333331</v>
+      </c>
+      <c r="H49" s="0">
+        <v>0.28872263649748414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C50" s="0">
+        <v>7</v>
+      </c>
+      <c r="D50" s="0">
+        <v>12.750005555555557</v>
+      </c>
+      <c r="E50" s="0">
+        <v>6.2787301587301574</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.49244920963931094</v>
+      </c>
+      <c r="G50" s="0">
+        <v>9.1477777777777778</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.71747245426036843</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C51" s="0">
+        <v>6</v>
+      </c>
+      <c r="D51" s="0">
+        <v>14.291672222222223</v>
+      </c>
+      <c r="E51" s="0">
+        <v>7.2618518518518522</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.50811771631316505</v>
+      </c>
+      <c r="G51" s="0">
+        <v>3.8031481481481477</v>
+      </c>
+      <c r="H51" s="0">
+        <v>0.26610938797173123</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C52" s="0">
+        <v>4</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C53" s="0">
+        <v>5</v>
+      </c>
+      <c r="D53" s="0">
+        <v>14.800005555555554</v>
+      </c>
+      <c r="E53" s="0">
+        <v>11.167333333333334</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0.75454926631033559</v>
+      </c>
+      <c r="G53" s="0">
+        <v>4.9322222222222223</v>
+      </c>
+      <c r="H53" s="0">
+        <v>0.33325813316136144</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C54" s="0">
+        <v>7</v>
+      </c>
+      <c r="D54" s="0">
+        <v>13.071434126984128</v>
+      </c>
+      <c r="E54" s="0">
+        <v>6.9042857142857139</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.52819649681994663</v>
+      </c>
+      <c r="G54" s="0">
+        <v>5.7565079365079361</v>
+      </c>
+      <c r="H54" s="0">
+        <v>0.44038839813486413</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="C55" s="0">
+        <v>6</v>
+      </c>
+      <c r="D55" s="0">
+        <v>13.833338888888889</v>
+      </c>
+      <c r="E55" s="0">
+        <v>6.660000000000001</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.48144558978088769</v>
+      </c>
+      <c r="G55" s="0">
+        <v>10.176481481481481</v>
+      </c>
+      <c r="H55" s="0">
+        <v>0.7356489682802001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="C56" s="0">
+        <v>6</v>
+      </c>
+      <c r="D56" s="0">
+        <v>13.458338888888889</v>
+      </c>
+      <c r="E56" s="0">
+        <v>10.200925925925926</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.75796322340699407</v>
+      </c>
+      <c r="G56" s="0">
+        <v>6.07462962962963</v>
+      </c>
+      <c r="H56" s="0">
+        <v>0.45136548275246674</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57" s="0">
+        <v>7</v>
+      </c>
+      <c r="D57" s="0">
+        <v>13.46429126984127</v>
+      </c>
+      <c r="E57" s="0">
+        <v>10.649682539682541</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.79095752804581809</v>
+      </c>
+      <c r="G57" s="0">
+        <v>9.9530158730158735</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0.73921572799822599</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="C58" s="0">
+        <v>6</v>
+      </c>
+      <c r="D58" s="0">
+        <v>13.458338888888889</v>
+      </c>
+      <c r="E58" s="0">
+        <v>10.561666666666667</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0.78476747790816193</v>
+      </c>
+      <c r="G58" s="0">
+        <v>7.9374074074074086</v>
+      </c>
+      <c r="H58" s="0">
+        <v>0.58977615833113528</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="C59" s="0">
+        <v>5</v>
+      </c>
+      <c r="D59" s="0">
+        <v>15.050005555555554</v>
+      </c>
+      <c r="E59" s="0">
+        <v>12.136222222222223</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0.80639320546577886</v>
+      </c>
+      <c r="G59" s="0">
+        <v>10.497555555555556</v>
+      </c>
+      <c r="H59" s="0">
+        <v>0.69751173956746426</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>